--- a/Code/Results/Cases/Case_9_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038924604931236</v>
+        <v>1.03553099075728</v>
       </c>
       <c r="D2">
-        <v>1.055943339868293</v>
+        <v>1.051555023701814</v>
       </c>
       <c r="E2">
-        <v>1.049445184844556</v>
+        <v>1.046528966640443</v>
       </c>
       <c r="F2">
-        <v>1.059218186530778</v>
+        <v>1.056125677372707</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06878979486785</v>
+        <v>1.066251375189554</v>
       </c>
       <c r="J2">
-        <v>1.060000305556738</v>
+        <v>1.056698534271776</v>
       </c>
       <c r="K2">
-        <v>1.066674663081687</v>
+        <v>1.062339968953786</v>
       </c>
       <c r="L2">
-        <v>1.060256109467619</v>
+        <v>1.057376014735675</v>
       </c>
       <c r="M2">
-        <v>1.069909852945881</v>
+        <v>1.066854784535011</v>
       </c>
       <c r="N2">
-        <v>1.023035079887156</v>
+        <v>1.021725510505123</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.063900981247202</v>
+        <v>1.061483170968561</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.058214658248308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.055158359387567</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.028259487983494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042916437183047</v>
+        <v>1.039283740463371</v>
       </c>
       <c r="D3">
-        <v>1.058778051373044</v>
+        <v>1.05411824843916</v>
       </c>
       <c r="E3">
-        <v>1.052580562351528</v>
+        <v>1.049443818097416</v>
       </c>
       <c r="F3">
-        <v>1.062146019328998</v>
+        <v>1.058846845516336</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.070092206809036</v>
+        <v>1.067385199284704</v>
       </c>
       <c r="J3">
-        <v>1.062301805099614</v>
+        <v>1.058757909392229</v>
       </c>
       <c r="K3">
-        <v>1.068710287615233</v>
+        <v>1.064102516259301</v>
       </c>
       <c r="L3">
-        <v>1.062582124574365</v>
+        <v>1.05948085310327</v>
       </c>
       <c r="M3">
-        <v>1.072040998026696</v>
+        <v>1.068778317819338</v>
       </c>
       <c r="N3">
-        <v>1.023869695272827</v>
+        <v>1.022303843788566</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.065587585371891</v>
+        <v>1.063005474428602</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.059651353753876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.056401701977063</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02865006554307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04545445801989</v>
+        <v>1.041671452600454</v>
       </c>
       <c r="D4">
-        <v>1.060584021284041</v>
+        <v>1.055752700434981</v>
       </c>
       <c r="E4">
-        <v>1.054579302349779</v>
+        <v>1.051303875621198</v>
       </c>
       <c r="F4">
-        <v>1.064013383599024</v>
+        <v>1.060583968700595</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.070911764084359</v>
+        <v>1.068098131881453</v>
       </c>
       <c r="J4">
-        <v>1.063762809726634</v>
+        <v>1.060066097373207</v>
       </c>
       <c r="K4">
-        <v>1.07000236142686</v>
+        <v>1.065221768994368</v>
       </c>
       <c r="L4">
-        <v>1.064060777294893</v>
+        <v>1.060820161206696</v>
       </c>
       <c r="M4">
-        <v>1.073396057005482</v>
+        <v>1.070002309392463</v>
       </c>
       <c r="N4">
-        <v>1.024399249888275</v>
+        <v>1.022671337950985</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.066659987285429</v>
+        <v>1.063974152044289</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.060565785779217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.057194027718622</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.028895883894637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046516212502411</v>
+        <v>1.04267027385989</v>
       </c>
       <c r="D5">
-        <v>1.06134233506517</v>
+        <v>1.056439295841268</v>
       </c>
       <c r="E5">
-        <v>1.055417657519533</v>
+        <v>1.052084091279375</v>
       </c>
       <c r="F5">
-        <v>1.064796608254379</v>
+        <v>1.061312667897424</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.071254358714643</v>
+        <v>1.068396055059915</v>
       </c>
       <c r="J5">
-        <v>1.06437552373435</v>
+        <v>1.060614723845104</v>
       </c>
       <c r="K5">
-        <v>1.07054529844045</v>
+        <v>1.065692384480368</v>
       </c>
       <c r="L5">
-        <v>1.064681262186101</v>
+        <v>1.061382182720864</v>
       </c>
       <c r="M5">
-        <v>1.073964594882583</v>
+        <v>1.070515932872881</v>
       </c>
       <c r="N5">
-        <v>1.024622721637559</v>
+        <v>1.022826403689296</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.067109931184753</v>
+        <v>1.0643806377937</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.06095664192529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.057534469037481</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028999687875265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046700225364976</v>
+        <v>1.042842863744886</v>
       </c>
       <c r="D6">
-        <v>1.061476182786935</v>
+        <v>1.056560463116899</v>
       </c>
       <c r="E6">
-        <v>1.055564203932188</v>
+        <v>1.052219998287867</v>
       </c>
       <c r="F6">
-        <v>1.064933230763413</v>
+        <v>1.061439481218488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.071315824868673</v>
+        <v>1.06844954816141</v>
       </c>
       <c r="J6">
-        <v>1.064484223852327</v>
+        <v>1.060711819540142</v>
       </c>
       <c r="K6">
-        <v>1.070642955269409</v>
+        <v>1.065777262463465</v>
       </c>
       <c r="L6">
-        <v>1.064791211345668</v>
+        <v>1.061481444209367</v>
       </c>
       <c r="M6">
-        <v>1.074065157649455</v>
+        <v>1.070606625119591</v>
       </c>
       <c r="N6">
-        <v>1.024664131460288</v>
+        <v>1.022854965318844</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.067189517066647</v>
+        <v>1.064452412344605</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.061034194225448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.057603864236584</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.029019566173029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045485831394402</v>
+        <v>1.041708866632882</v>
       </c>
       <c r="D7">
-        <v>1.060612777791949</v>
+        <v>1.055785689875091</v>
       </c>
       <c r="E7">
-        <v>1.054607274419499</v>
+        <v>1.051337018245856</v>
       </c>
       <c r="F7">
-        <v>1.064038669653812</v>
+        <v>1.060613346004184</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.070927844975609</v>
+        <v>1.06811735133203</v>
       </c>
       <c r="J7">
-        <v>1.063787778970187</v>
+        <v>1.060096930755215</v>
       </c>
       <c r="K7">
-        <v>1.070028043125075</v>
+        <v>1.065251618789784</v>
       </c>
       <c r="L7">
-        <v>1.06408565776165</v>
+        <v>1.060850143289304</v>
       </c>
       <c r="M7">
-        <v>1.073418318337963</v>
+        <v>1.070028605406695</v>
       </c>
       <c r="N7">
-        <v>1.024413184737898</v>
+        <v>1.022710011552928</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.066677605027144</v>
+        <v>1.063994962926358</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.060603507757324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.057236716064894</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.028907185178294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040304974992505</v>
+        <v>1.036855184009196</v>
       </c>
       <c r="D8">
-        <v>1.056930671413805</v>
+        <v>1.052469071973667</v>
       </c>
       <c r="E8">
-        <v>1.050532502318083</v>
+        <v>1.047563819617714</v>
       </c>
       <c r="F8">
-        <v>1.060232114212821</v>
+        <v>1.057087274604702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.069249276371445</v>
+        <v>1.066667262691621</v>
       </c>
       <c r="J8">
-        <v>1.060805289202499</v>
+        <v>1.057445756398033</v>
       </c>
       <c r="K8">
-        <v>1.067390986567098</v>
+        <v>1.06298229795385</v>
       </c>
       <c r="L8">
-        <v>1.061068867872121</v>
+        <v>1.058135863374553</v>
       </c>
       <c r="M8">
-        <v>1.07065363175794</v>
+        <v>1.06754574262295</v>
       </c>
       <c r="N8">
-        <v>1.023333436673971</v>
+        <v>1.022021510330536</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.064489613761984</v>
+        <v>1.06203000244527</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.058743440744313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.055637114514063</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.028411189728863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,105 +873,123 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030787810199514</v>
+        <v>1.027924770869466</v>
       </c>
       <c r="D9">
-        <v>1.050187136439108</v>
+        <v>1.046383803309841</v>
       </c>
       <c r="E9">
-        <v>1.043085011026466</v>
+        <v>1.040657470840689</v>
       </c>
       <c r="F9">
-        <v>1.053284022941207</v>
+        <v>1.050643483516315</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.066090198711797</v>
+        <v>1.0639167268292</v>
       </c>
       <c r="J9">
-        <v>1.055298328499938</v>
+        <v>1.052528557177421</v>
       </c>
       <c r="K9">
-        <v>1.062515253008107</v>
+        <v>1.058766633478043</v>
       </c>
       <c r="L9">
-        <v>1.055515706434823</v>
+        <v>1.053123635682903</v>
       </c>
       <c r="M9">
-        <v>1.065567957823715</v>
+        <v>1.062965068905608</v>
       </c>
       <c r="N9">
-        <v>1.021329648001879</v>
+        <v>1.020648447795177</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.060464761788706</v>
+        <v>1.058404802029262</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.055293041036802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.05265311515286</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.027462058267164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024269187943902</v>
+        <v>1.021848874743265</v>
       </c>
       <c r="D10">
-        <v>1.045610268439131</v>
+        <v>1.042287848084623</v>
       </c>
       <c r="E10">
-        <v>1.03804601099034</v>
+        <v>1.036024086500922</v>
       </c>
       <c r="F10">
-        <v>1.048611389105773</v>
+        <v>1.046344826653793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.063910338151773</v>
+        <v>1.062036649896685</v>
       </c>
       <c r="J10">
-        <v>1.051551934209549</v>
+        <v>1.049221663621379</v>
       </c>
       <c r="K10">
-        <v>1.05920211220443</v>
+        <v>1.055933370484638</v>
       </c>
       <c r="L10">
-        <v>1.051760708643878</v>
+        <v>1.049772013860496</v>
       </c>
       <c r="M10">
-        <v>1.06215512015095</v>
+        <v>1.059924861565977</v>
       </c>
       <c r="N10">
-        <v>1.019989602819332</v>
+        <v>1.01985640747378</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.057814056266286</v>
+        <v>1.056049100461546</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.052966958217771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.050668009111116</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02683335294789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022084219016859</v>
+        <v>1.019783061039623</v>
       </c>
       <c r="D11">
-        <v>1.044225998286189</v>
+        <v>1.04104578780289</v>
       </c>
       <c r="E11">
-        <v>1.036607482013571</v>
+        <v>1.03467850697884</v>
       </c>
       <c r="F11">
-        <v>1.047465045560426</v>
+        <v>1.045299659369091</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.063370347652462</v>
+        <v>1.061582587036252</v>
       </c>
       <c r="J11">
-        <v>1.050566278003023</v>
+        <v>1.048355387182522</v>
       </c>
       <c r="K11">
-        <v>1.058359441198098</v>
+        <v>1.055233042325493</v>
       </c>
       <c r="L11">
-        <v>1.050870549540792</v>
+        <v>1.048974786580662</v>
       </c>
       <c r="M11">
-        <v>1.061544114140393</v>
+        <v>1.059415030440847</v>
       </c>
       <c r="N11">
-        <v>1.019828522595704</v>
+        <v>1.019963609642462</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.057757239619302</v>
+        <v>1.056073162202269</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.052403267771544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.050208194332181</v>
+      </c>
+      <c r="S11">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.026785811414049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021510151125879</v>
+        <v>1.019205647039608</v>
       </c>
       <c r="D12">
-        <v>1.043925411515125</v>
+        <v>1.040757660766883</v>
       </c>
       <c r="E12">
-        <v>1.036345452174787</v>
+        <v>1.03440001676304</v>
       </c>
       <c r="F12">
-        <v>1.047359533346827</v>
+        <v>1.045193866829504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0633162996964</v>
+        <v>1.061533129034477</v>
       </c>
       <c r="J12">
-        <v>1.050431259752767</v>
+        <v>1.04821885811324</v>
       </c>
       <c r="K12">
-        <v>1.058256827827548</v>
+        <v>1.055143559352215</v>
       </c>
       <c r="L12">
-        <v>1.050807955314605</v>
+        <v>1.048896565460636</v>
       </c>
       <c r="M12">
-        <v>1.061632366705744</v>
+        <v>1.059503586544572</v>
       </c>
       <c r="N12">
-        <v>1.019926085724003</v>
+        <v>1.020111573458039</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.058147007898637</v>
+        <v>1.056463719019795</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.052330719872506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.050144930599028</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026840334933018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022163067310572</v>
+        <v>1.019744837032354</v>
       </c>
       <c r="D13">
-        <v>1.044465434685165</v>
+        <v>1.041199017305033</v>
       </c>
       <c r="E13">
-        <v>1.036996056080699</v>
+        <v>1.034935158164742</v>
       </c>
       <c r="F13">
-        <v>1.048076702370615</v>
+        <v>1.04582154574302</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.0636539976006</v>
+        <v>1.061804594756421</v>
       </c>
       <c r="J13">
-        <v>1.050968883387007</v>
+        <v>1.048646790032528</v>
       </c>
       <c r="K13">
-        <v>1.058746260416006</v>
+        <v>1.055535767711896</v>
       </c>
       <c r="L13">
-        <v>1.051405436690537</v>
+        <v>1.04938043173237</v>
       </c>
       <c r="M13">
-        <v>1.062296222714002</v>
+        <v>1.060079285850096</v>
       </c>
       <c r="N13">
-        <v>1.020245226590089</v>
+        <v>1.020274173263941</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.058943743558541</v>
+        <v>1.057191172840946</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.052674314812037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.050419539329627</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026985560257579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023175583689513</v>
+        <v>1.020629911737175</v>
       </c>
       <c r="D14">
-        <v>1.045224983913621</v>
+        <v>1.041840861352248</v>
       </c>
       <c r="E14">
-        <v>1.037863953669541</v>
+        <v>1.035680150955327</v>
       </c>
       <c r="F14">
-        <v>1.048951293095899</v>
+        <v>1.046594962790803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.064067701147147</v>
+        <v>1.062141004507057</v>
       </c>
       <c r="J14">
-        <v>1.05164935673959</v>
+        <v>1.049203417402626</v>
       </c>
       <c r="K14">
-        <v>1.059357528909257</v>
+        <v>1.05603061546315</v>
       </c>
       <c r="L14">
-        <v>1.052121554250337</v>
+        <v>1.049975294029977</v>
       </c>
       <c r="M14">
-        <v>1.063021394393954</v>
+        <v>1.0607044837061</v>
       </c>
       <c r="N14">
-        <v>1.020568367746672</v>
+        <v>1.020397158682685</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.059687661471473</v>
+        <v>1.05785629866671</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.053107874720078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.050770924065732</v>
+      </c>
+      <c r="S14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.027129578652999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02369888945579</v>
+        <v>1.021097647292625</v>
       </c>
       <c r="D15">
-        <v>1.045604115999019</v>
+        <v>1.042166626955042</v>
       </c>
       <c r="E15">
-        <v>1.038285976190068</v>
+        <v>1.036050389084428</v>
       </c>
       <c r="F15">
-        <v>1.049358492081043</v>
+        <v>1.046957752581143</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.064261272817549</v>
+        <v>1.062299973518491</v>
       </c>
       <c r="J15">
-        <v>1.051972617961615</v>
+        <v>1.049472390126619</v>
       </c>
       <c r="K15">
-        <v>1.059646928095865</v>
+        <v>1.056267106178456</v>
       </c>
       <c r="L15">
-        <v>1.052452149460417</v>
+        <v>1.050254696409314</v>
       </c>
       <c r="M15">
-        <v>1.063338876602242</v>
+        <v>1.060977989998873</v>
       </c>
       <c r="N15">
-        <v>1.020701619983558</v>
+        <v>1.020438042979742</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.059975616345052</v>
+        <v>1.058109541604688</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.053318213606788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.050944430078049</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.027189215418613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026339417398402</v>
+        <v>1.023512792773403</v>
       </c>
       <c r="D16">
-        <v>1.047448446737495</v>
+        <v>1.043780842321952</v>
       </c>
       <c r="E16">
-        <v>1.040301043626721</v>
+        <v>1.037864273287236</v>
       </c>
       <c r="F16">
-        <v>1.051224908066598</v>
+        <v>1.048641171356373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.065140493993234</v>
+        <v>1.063032832510621</v>
       </c>
       <c r="J16">
-        <v>1.053472047612663</v>
+        <v>1.050749710969032</v>
       </c>
       <c r="K16">
-        <v>1.060976458572528</v>
+        <v>1.057367696599075</v>
       </c>
       <c r="L16">
-        <v>1.053944219900932</v>
+        <v>1.051547178700385</v>
       </c>
       <c r="M16">
-        <v>1.064692880416972</v>
+        <v>1.062150160972924</v>
       </c>
       <c r="N16">
-        <v>1.021213635001733</v>
+        <v>1.020565166708544</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.061007676986124</v>
+        <v>1.058997822779613</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.054261286357186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.051725943469859</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.027419581132583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027836943770144</v>
+        <v>1.024913255004694</v>
       </c>
       <c r="D17">
-        <v>1.048467027018617</v>
+        <v>1.044691311659589</v>
       </c>
       <c r="E17">
-        <v>1.041394596851683</v>
+        <v>1.038875002566219</v>
       </c>
       <c r="F17">
-        <v>1.052196522043377</v>
+        <v>1.049531430090827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.065596071712033</v>
+        <v>1.063421402848199</v>
       </c>
       <c r="J17">
-        <v>1.054265875468723</v>
+        <v>1.051446607631471</v>
       </c>
       <c r="K17">
-        <v>1.061675463169622</v>
+        <v>1.057958629409161</v>
       </c>
       <c r="L17">
-        <v>1.054713773252727</v>
+        <v>1.052234097477319</v>
       </c>
       <c r="M17">
-        <v>1.065347326933881</v>
+        <v>1.062723364850657</v>
       </c>
       <c r="N17">
-        <v>1.021437651069777</v>
+        <v>1.02062776850712</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.061397940073948</v>
+        <v>1.05932366720774</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.054758010471117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.052146510434339</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02752213397049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02846475210946</v>
+        <v>1.025538187725825</v>
       </c>
       <c r="D18">
-        <v>1.048838059044589</v>
+        <v>1.045044255799229</v>
       </c>
       <c r="E18">
-        <v>1.041760149680064</v>
+        <v>1.03924618905423</v>
       </c>
       <c r="F18">
-        <v>1.052442519629464</v>
+        <v>1.049771272546607</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.065709295298364</v>
+        <v>1.063526190033813</v>
       </c>
       <c r="J18">
-        <v>1.054493909132975</v>
+        <v>1.051669938769192</v>
       </c>
       <c r="K18">
-        <v>1.061863864478604</v>
+        <v>1.058128266815199</v>
       </c>
       <c r="L18">
-        <v>1.054894983782675</v>
+        <v>1.052420205425556</v>
       </c>
       <c r="M18">
-        <v>1.065413519728072</v>
+        <v>1.062782842561454</v>
       </c>
       <c r="N18">
-        <v>1.021414076233674</v>
+        <v>1.020587835603932</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.061216765043107</v>
+        <v>1.059136764052089</v>
       </c>
       <c r="Q18">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.054879855659167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.052253944143126</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.027508342911161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028323549198597</v>
+        <v>1.025469125469268</v>
       </c>
       <c r="D19">
-        <v>1.0486438255502</v>
+        <v>1.044906062866158</v>
       </c>
       <c r="E19">
-        <v>1.041483507469929</v>
+        <v>1.039045723966031</v>
       </c>
       <c r="F19">
-        <v>1.052045417724978</v>
+        <v>1.049428887544694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.065527129952598</v>
+        <v>1.063383304883443</v>
       </c>
       <c r="J19">
-        <v>1.054229004208423</v>
+        <v>1.051474093166493</v>
       </c>
       <c r="K19">
-        <v>1.061612266897809</v>
+        <v>1.057931569317841</v>
       </c>
       <c r="L19">
-        <v>1.054561725484679</v>
+        <v>1.052161757468261</v>
       </c>
       <c r="M19">
-        <v>1.064962375146611</v>
+        <v>1.062385409035841</v>
       </c>
       <c r="N19">
-        <v>1.021185187112776</v>
+        <v>1.020445839674428</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.060541057988128</v>
+        <v>1.05850288415955</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.054708217122674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.052121750628144</v>
+      </c>
+      <c r="S19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T19">
+        <v>1.027397050673169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026007361888517</v>
+        <v>1.023436291737246</v>
       </c>
       <c r="D20">
-        <v>1.046845611876734</v>
+        <v>1.043371383862963</v>
       </c>
       <c r="E20">
-        <v>1.039398481291223</v>
+        <v>1.037237307197303</v>
       </c>
       <c r="F20">
-        <v>1.049863421317815</v>
+        <v>1.047473509480948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.064510414492097</v>
+        <v>1.062539676043507</v>
       </c>
       <c r="J20">
-        <v>1.05257128933181</v>
+        <v>1.050092747524758</v>
       </c>
       <c r="K20">
-        <v>1.06011188632812</v>
+        <v>1.056692186987402</v>
       </c>
       <c r="L20">
-        <v>1.052782212334122</v>
+        <v>1.050655529237005</v>
       </c>
       <c r="M20">
-        <v>1.063082704893539</v>
+        <v>1.060729978302032</v>
       </c>
       <c r="N20">
-        <v>1.020369999672804</v>
+        <v>1.020002909475599</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.058537816324362</v>
+        <v>1.056675922033858</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.053651271568263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.051249725414132</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.027007217242492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020975741970914</v>
+        <v>1.018897297441852</v>
       </c>
       <c r="D21">
-        <v>1.043290772687151</v>
+        <v>1.040301175812918</v>
       </c>
       <c r="E21">
-        <v>1.035472970687096</v>
+        <v>1.033767659119258</v>
       </c>
       <c r="F21">
-        <v>1.046188449884583</v>
+        <v>1.044197113135826</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.062772849084709</v>
+        <v>1.061113915536508</v>
       </c>
       <c r="J21">
-        <v>1.04962192047746</v>
+        <v>1.04762563978295</v>
       </c>
       <c r="K21">
-        <v>1.057495919357116</v>
+        <v>1.054557244484291</v>
       </c>
       <c r="L21">
-        <v>1.049812081772239</v>
+        <v>1.048136340542464</v>
       </c>
       <c r="M21">
-        <v>1.060344598468228</v>
+        <v>1.058386896382292</v>
       </c>
       <c r="N21">
-        <v>1.019278059446572</v>
+        <v>1.019743346189213</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.056330922454173</v>
+        <v>1.054781564009352</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.051804927228528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.049743798502123</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.026534427307164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017772041837115</v>
+        <v>1.016005566600353</v>
       </c>
       <c r="D22">
-        <v>1.041035496208242</v>
+        <v>1.03835278718932</v>
       </c>
       <c r="E22">
-        <v>1.032991654838546</v>
+        <v>1.031575744121201</v>
       </c>
       <c r="F22">
-        <v>1.043880195695408</v>
+        <v>1.042141613667985</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.061664479781643</v>
+        <v>1.060202371262293</v>
       </c>
       <c r="J22">
-        <v>1.047751547234051</v>
+        <v>1.04605898718362</v>
       </c>
       <c r="K22">
-        <v>1.055835626471245</v>
+        <v>1.053200923425285</v>
       </c>
       <c r="L22">
-        <v>1.047936698426161</v>
+        <v>1.046546600470343</v>
       </c>
       <c r="M22">
-        <v>1.058629770881718</v>
+        <v>1.056922043808738</v>
       </c>
       <c r="N22">
-        <v>1.018590123176137</v>
+        <v>1.019576672123697</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.054973779155444</v>
+        <v>1.053622252912135</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.050617874894674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.048770349952475</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02623577291659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019459146225612</v>
+        <v>1.017514480515143</v>
       </c>
       <c r="D23">
-        <v>1.042216986125963</v>
+        <v>1.039361651187709</v>
       </c>
       <c r="E23">
-        <v>1.034293940960934</v>
+        <v>1.032712802274233</v>
       </c>
       <c r="F23">
-        <v>1.045092819771086</v>
+        <v>1.04321093526311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.062243797707327</v>
+        <v>1.060670418124835</v>
       </c>
       <c r="J23">
-        <v>1.048730085476631</v>
+        <v>1.04686439642029</v>
       </c>
       <c r="K23">
-        <v>1.056701525799052</v>
+        <v>1.053895978802731</v>
       </c>
       <c r="L23">
-        <v>1.048917511435257</v>
+        <v>1.047364449419008</v>
       </c>
       <c r="M23">
-        <v>1.059527569719267</v>
+        <v>1.057678226381588</v>
       </c>
       <c r="N23">
-        <v>1.018944564873254</v>
+        <v>1.019612152802852</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.055684312507579</v>
+        <v>1.054220709841266</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.051220652695918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.049251390308978</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.026382419867669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025996248151152</v>
+        <v>1.023436889503527</v>
       </c>
       <c r="D24">
-        <v>1.046815263394673</v>
+        <v>1.043349282318222</v>
       </c>
       <c r="E24">
-        <v>1.039361196982759</v>
+        <v>1.037212642017953</v>
       </c>
       <c r="F24">
-        <v>1.049811643567122</v>
+        <v>1.047430514359863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.064479621732213</v>
+        <v>1.062514964070857</v>
       </c>
       <c r="J24">
-        <v>1.052529055205326</v>
+        <v>1.050061676265657</v>
       </c>
       <c r="K24">
-        <v>1.060067272485413</v>
+        <v>1.056655624894461</v>
       </c>
       <c r="L24">
-        <v>1.052730632088921</v>
+        <v>1.050616325619397</v>
       </c>
       <c r="M24">
-        <v>1.063017050127347</v>
+        <v>1.060672926680448</v>
       </c>
       <c r="N24">
-        <v>1.020329419066468</v>
+        <v>1.01997552175369</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.058445940690429</v>
+        <v>1.056590766629676</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.053592962050858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.051194415285195</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026984804070594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033321678119286</v>
+        <v>1.030286069654585</v>
       </c>
       <c r="D25">
-        <v>1.051988560090923</v>
+        <v>1.047998484210922</v>
       </c>
       <c r="E25">
-        <v>1.045068232242281</v>
+        <v>1.042481219555511</v>
       </c>
       <c r="F25">
-        <v>1.0551315225207</v>
+        <v>1.052345038891037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.066947973573273</v>
+        <v>1.064657497450683</v>
       </c>
       <c r="J25">
-        <v>1.056777416316688</v>
+        <v>1.05383547442381</v>
       </c>
       <c r="K25">
-        <v>1.063830075722231</v>
+        <v>1.059894729433161</v>
       </c>
       <c r="L25">
-        <v>1.057005005752937</v>
+        <v>1.054454013040793</v>
       </c>
       <c r="M25">
-        <v>1.066930294578188</v>
+        <v>1.064181690331761</v>
       </c>
       <c r="N25">
-        <v>1.021876611864136</v>
+        <v>1.020986564111918</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.061542930427296</v>
+        <v>1.059367652554523</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.05625053943416</v>
+        <v>1.05348142154895</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.027721399823667</v>
       </c>
     </row>
   </sheetData>
